--- a/AssignmentList.xlsx
+++ b/AssignmentList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Java</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>Thu May 02 16:20:00 CDT 2019</t>
+  </si>
+  <si>
+    <t>Essay</t>
+  </si>
+  <si>
+    <t>Fri May 10 00:00:00 CDT 2019</t>
   </si>
 </sst>
 </file>
@@ -80,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -128,6 +134,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1234.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/AssignmentList.xlsx
+++ b/AssignmentList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Java</t>
   </si>
@@ -32,16 +32,19 @@
     <t>Sat May 04 00:00:00 CDT 2019</t>
   </si>
   <si>
-    <t>Lab 11 gui and database</t>
-  </si>
-  <si>
-    <t>Thu May 02 16:20:00 CDT 2019</t>
-  </si>
-  <si>
     <t>Essay</t>
   </si>
   <si>
     <t>Fri May 10 00:00:00 CDT 2019</t>
+  </si>
+  <si>
+    <t>MATH</t>
+  </si>
+  <si>
+    <t>Chapter 10 questions</t>
+  </si>
+  <si>
+    <t>Mon May 06 13:54:27 CDT 2019</t>
   </si>
 </sst>
 </file>
@@ -122,10 +125,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2545.0</v>
+        <v>1234.0</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -136,16 +139,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>1234.0</v>
+        <v>3423.0</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/AssignmentList.xlsx
+++ b/AssignmentList.xlsx
@@ -12,16 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>Final project</t>
-  </si>
-  <si>
-    <t>Thu May 02 16:09:08 CDT 2019</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>CMST</t>
   </si>
@@ -45,6 +36,24 @@
   </si>
   <si>
     <t>Mon May 06 13:54:27 CDT 2019</t>
+  </si>
+  <si>
+    <t>ITEC</t>
+  </si>
+  <si>
+    <t>Java final project</t>
+  </si>
+  <si>
+    <t>Wed May 15 00:00:00 CDT 2019</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>test assignment</t>
+  </si>
+  <si>
+    <t>Wed May 08 14:34:07 CDT 2019</t>
   </si>
 </sst>
 </file>
@@ -89,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -100,7 +109,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>2545.0</v>
+        <v>1010.0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -111,24 +120,24 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1234.0</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
-        <v>1010.0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1234.0</v>
+        <v>3423.0</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -142,7 +151,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>3423.0</v>
+        <v>2545.0</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -151,6 +160,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1234.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/AssignmentList.xlsx
+++ b/AssignmentList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>CMST</t>
   </si>
@@ -23,12 +23,6 @@
     <t>Sat May 04 00:00:00 CDT 2019</t>
   </si>
   <si>
-    <t>Essay</t>
-  </si>
-  <si>
-    <t>Fri May 10 00:00:00 CDT 2019</t>
-  </si>
-  <si>
     <t>MATH</t>
   </si>
   <si>
@@ -54,6 +48,21 @@
   </si>
   <si>
     <t>Wed May 08 14:34:07 CDT 2019</t>
+  </si>
+  <si>
+    <t>Reflection Essay</t>
+  </si>
+  <si>
+    <t>Sun May 12 00:00:00 CDT 2019</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>testing 123</t>
+  </si>
+  <si>
+    <t>Wed Jun 12 00:00:00 CDT 2019</t>
   </si>
 </sst>
 </file>
@@ -98,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -120,58 +129,72 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1234.0</v>
+        <v>3423.0</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>3423.0</v>
+        <v>2545.0</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>2545.0</v>
+        <v>1234.0</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>1234.0</v>
+        <v>1010.0</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4523.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/AssignmentList.xlsx
+++ b/AssignmentList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>CMST</t>
   </si>
@@ -62,7 +62,16 @@
     <t>testing 123</t>
   </si>
   <si>
-    <t>Wed Jun 12 00:00:00 CDT 2019</t>
+    <t>Wed May 08 00:00:00 CDT 2019</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>test test test</t>
+  </si>
+  <si>
+    <t>Sat Jun 08 00:00:00 CDT 2019</t>
   </si>
 </sst>
 </file>
@@ -107,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -188,13 +197,27 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>4523.0</v>
+        <v>4321.0</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6543.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/AssignmentList.xlsx
+++ b/AssignmentList.xlsx
@@ -12,66 +12,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t>ITEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java final project </t>
+  </si>
+  <si>
+    <t>05-15-2019</t>
+  </si>
   <si>
     <t>CMST</t>
+  </si>
+  <si>
+    <t>Self-reflection essay</t>
+  </si>
+  <si>
+    <t>05-16-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab 11 </t>
+  </si>
+  <si>
+    <t>05-18-2019</t>
+  </si>
+  <si>
+    <t>ENGL</t>
+  </si>
+  <si>
+    <t>Read textbook pg.120-140</t>
+  </si>
+  <si>
+    <t>05-22-2019</t>
+  </si>
+  <si>
+    <t>MATH</t>
   </si>
   <si>
     <t>Quiz</t>
   </si>
   <si>
-    <t>Sat May 04 00:00:00 CDT 2019</t>
-  </si>
-  <si>
-    <t>MATH</t>
-  </si>
-  <si>
-    <t>Chapter 10 questions</t>
-  </si>
-  <si>
-    <t>Mon May 06 13:54:27 CDT 2019</t>
-  </si>
-  <si>
-    <t>ITEC</t>
-  </si>
-  <si>
-    <t>Java final project</t>
-  </si>
-  <si>
-    <t>Wed May 15 00:00:00 CDT 2019</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>test assignment</t>
-  </si>
-  <si>
-    <t>Wed May 08 14:34:07 CDT 2019</t>
-  </si>
-  <si>
-    <t>Reflection Essay</t>
-  </si>
-  <si>
-    <t>Sun May 12 00:00:00 CDT 2019</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>testing 123</t>
-  </si>
-  <si>
-    <t>Wed May 08 00:00:00 CDT 2019</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>test test test</t>
-  </si>
-  <si>
-    <t>Sat Jun 08 00:00:00 CDT 2019</t>
+    <t>05-14-2019</t>
   </si>
 </sst>
 </file>
@@ -116,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -127,7 +109,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>1010.0</v>
+        <v>2545.0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -141,7 +123,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>3423.0</v>
+        <v>1010.0</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -152,38 +134,38 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
         <v>2545.0</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1110.0</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
-        <v>1234.0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>1010.0</v>
+        <v>1234.0</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -192,34 +174,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4321.0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6543.0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
